--- a/Bestiary.xlsx
+++ b/Bestiary.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="35">
   <si>
     <t xml:space="preserve">Вогонь </t>
   </si>
@@ -97,6 +97,33 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>RANK2</t>
+  </si>
+  <si>
+    <t>RANK1</t>
+  </si>
+  <si>
+    <t>2Sdef</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>1M 2S Def</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>RANK3</t>
+  </si>
+  <si>
+    <t>1G 2M 1S Def</t>
+  </si>
+  <si>
+    <t>G</t>
   </si>
 </sst>
 </file>
@@ -112,7 +139,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,6 +170,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -156,13 +207,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -443,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L22"/>
+  <dimension ref="A1:M91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K80" sqref="K80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,6 +513,11 @@
     <col min="3" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>0</v>
@@ -1038,6 +1100,1777 @@
         <v>23</v>
       </c>
     </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" t="s">
+        <v>8</v>
+      </c>
+      <c r="L25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L42" s="1"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>2</v>
+      </c>
+      <c r="F48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" t="s">
+        <v>6</v>
+      </c>
+      <c r="J48" t="s">
+        <v>7</v>
+      </c>
+      <c r="K48" t="s">
+        <v>8</v>
+      </c>
+      <c r="L48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L52" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L54" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L56" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L58" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L60" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>18</v>
+      </c>
+      <c r="B61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L62" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>19</v>
+      </c>
+      <c r="B63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L64" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L65" s="1"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L66" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>21</v>
+      </c>
+      <c r="B67" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>32</v>
+      </c>
+      <c r="B70" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>2</v>
+      </c>
+      <c r="F71" t="s">
+        <v>3</v>
+      </c>
+      <c r="G71" t="s">
+        <v>4</v>
+      </c>
+      <c r="H71" t="s">
+        <v>5</v>
+      </c>
+      <c r="I71" t="s">
+        <v>6</v>
+      </c>
+      <c r="J71" t="s">
+        <v>7</v>
+      </c>
+      <c r="K71" t="s">
+        <v>8</v>
+      </c>
+      <c r="L71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J73" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K73" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L73" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G75" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I75" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K75" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L75" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J77" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K77" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L77" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L79" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>16</v>
+      </c>
+      <c r="B80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I81" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J81" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K81" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L81" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>17</v>
+      </c>
+      <c r="B82" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I83" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J83" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K83" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L83" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>18</v>
+      </c>
+      <c r="B84" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J85" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K85" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L85" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>19</v>
+      </c>
+      <c r="B86" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H87" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K87" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L87" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>20</v>
+      </c>
+      <c r="B88" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L88" s="1"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I89" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L89" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>21</v>
+      </c>
+      <c r="B90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H91" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J91" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K91" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M91" s="11"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
